--- a/DRE/cap07-TareasAutomaticas/IPT_ACRM_TP_01-Clasificacion_Nuevas_Altas_SAP_150518.xlsx
+++ b/DRE/cap07-TareasAutomaticas/IPT_ACRM_TP_01-Clasificacion_Nuevas_Altas_SAP_150518.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sort\Desktop\temp_INGETEAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DRE\cap07-TareasAutomaticas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11745"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
-    <t>TP1 - Clasificación de nuevas altas en SAP (gestión desde CRM)</t>
-  </si>
-  <si>
     <t>Periodicity</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>- INFORME Nuevas clasificaciones</t>
+  </si>
+  <si>
+    <t>TP1 - Clasificación de nuevas altas en SAP</t>
   </si>
 </sst>
 </file>
@@ -310,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -366,6 +366,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,7 +387,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -649,10 +652,10 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
@@ -662,7 +665,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -672,10 +675,10 @@
     </row>
     <row r="2" spans="1:6" ht="21.75" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>2</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="2"/>
@@ -684,10 +687,10 @@
     </row>
     <row r="3" spans="1:6" ht="37.5" customHeight="1">
       <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="2"/>
@@ -696,10 +699,10 @@
     </row>
     <row r="4" spans="1:6" ht="75" customHeight="1">
       <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>6</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="2"/>
@@ -708,13 +711,13 @@
     </row>
     <row r="5" spans="1:6" ht="21.75" customHeight="1">
       <c r="A5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -723,10 +726,10 @@
     <row r="6" spans="1:6" ht="21.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -734,13 +737,13 @@
     </row>
     <row r="7" spans="1:6" ht="21.75" customHeight="1">
       <c r="A7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -749,10 +752,10 @@
     <row r="8" spans="1:6" ht="21.75" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -760,10 +763,10 @@
     </row>
     <row r="9" spans="1:6" ht="21.75" customHeight="1">
       <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>16</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="2"/>
